--- a/output.xlsx
+++ b/output.xlsx
@@ -360,17 +360,17 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Rollno</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Marks</t>
+          <t>school</t>
         </is>
       </c>
     </row>
@@ -380,11 +380,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alice</t>
-        </is>
-      </c>
-      <c r="C2">
-        <v>99</v>
+          <t>Nishant</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -393,11 +395,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="C3">
-        <v>98</v>
+          <t>Dev</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -406,11 +410,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bob</t>
-        </is>
-      </c>
-      <c r="C4">
-        <v>97</v>
+          <t>Sweety</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
       </c>
     </row>
   </sheetData>
